--- a/output/StructureDefinition-pacio-plcf.xlsx
+++ b/output/StructureDefinition-pacio-plcf.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="416">
   <si>
     <t>Path</t>
   </si>
@@ -558,10 +558,18 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://paciowg.github.io/cognitive-status-ig/CodeSystem/pacio-cat-cs"/&gt;
+    &lt;code value="functioning"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://paciowg.github.io/cognitive-status-ig/ValueSet/pacio-cat-vs</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -834,9 +842,6 @@
   </si>
   <si>
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
@@ -1510,7 +1515,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.01171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -3419,7 +3424,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>44</v>
@@ -3456,7 +3461,7 @@
         <v>45</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>45</v>
@@ -3471,13 +3476,11 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3519,10 +3522,10 @@
         <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3530,11 +3533,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3556,16 +3559,16 @@
         <v>167</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3575,7 +3578,7 @@
         <v>45</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>45</v>
@@ -3594,7 +3597,7 @@
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3612,7 +3615,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>55</v>
@@ -3627,27 +3630,27 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3670,19 +3673,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3731,7 +3734,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3746,19 +3749,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3766,7 +3769,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3789,16 +3792,16 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3848,7 +3851,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3869,13 +3872,13 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3883,11 +3886,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3906,19 +3909,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3967,7 +3970,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3982,19 +3985,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4002,11 +4005,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4025,19 +4028,19 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4086,7 +4089,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4101,19 +4104,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4121,7 +4124,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4144,16 +4147,16 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4203,7 +4206,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4224,13 +4227,13 @@
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4238,7 +4241,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4261,17 +4264,17 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4320,7 +4323,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4335,19 +4338,19 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4355,7 +4358,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4381,16 +4384,16 @@
         <v>57</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4418,7 +4421,7 @@
         <v>45</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y25" t="s" s="2">
         <v>45</v>
@@ -4439,7 +4442,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4448,7 +4451,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4457,24 +4460,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4500,16 +4503,16 @@
         <v>167</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4534,7 +4537,7 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="X26" t="s" s="2">
         <v>260</v>
@@ -4558,7 +4561,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4653,7 +4656,7 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="X27" t="s" s="2">
         <v>269</v>
@@ -7210,7 +7213,7 @@
         <v>399</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7241,7 +7244,7 @@
         <v>400</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7280,13 +7283,13 @@
         <v>401</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7323,13 +7326,13 @@
         <v>404</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>405</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7399,16 +7402,16 @@
         <v>406</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7448,7 +7451,7 @@
         <v>410</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7473,7 +7476,7 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="X51" t="s" s="2">
         <v>260</v>
@@ -7592,7 +7595,7 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>269</v>
